--- a/総合テスト/非機能要件/ST-NF-004_結果.xlsx
+++ b/総合テスト/非機能要件/ST-NF-004_結果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryotaro.toki\Documents\AVANT\研修\workspace\Popcorn\総合テスト\非機能要件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9460A4C9-AFE2-48C9-B5F6-9CE714019F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB88E9A-0383-44CF-9F9A-03348CC50C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DE31131B-9F59-40ED-9817-A74F04D24B44}"/>
   </bookViews>
@@ -36,24 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>下部にある2025-07-25T10:16:51.769752300の段で注文処理が行われている</t>
-    <rPh sb="0" eb="2">
-      <t>カブ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ダン</t>
-    </rPh>
-    <rPh sb="37" eb="41">
-      <t>チュウモンショリ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -116,6 +99,211 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>42333</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>550333</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>129157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{590BE1C9-2D3C-1C2E-EBCB-B7080D5A2D65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="9567333"/>
+          <a:ext cx="7725833" cy="4531824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>42334</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>596901</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>211603</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A801AA-428A-AC72-21DF-57C1DA459889}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698501" y="14435666"/>
+          <a:ext cx="7772400" cy="4402604"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10581</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>565148</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>10381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{176E4576-F0D0-8FDA-4EA0-F3201B365595}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666748" y="4921251"/>
+          <a:ext cx="7772400" cy="4402463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10584</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>10584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>565151</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>3256</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2363E803-DD61-4292-945D-5985D6F7C681}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666751" y="243417"/>
+          <a:ext cx="7772400" cy="4416506"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,22 +623,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E13457-F136-4692-8D93-5B20588F4C1F}">
-  <dimension ref="B21"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -463,15 +646,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100FB0BDFD3C69BE04CA0B6EBFBB59E4559" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="752b2ff175b05b03e0c035222de06982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6d91bb22-1267-46fa-8e61-645dc3a0f267" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1718121399b3c72a7290a669e49a9f43" ns3:_="">
     <xsd:import namespace="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
@@ -621,6 +795,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBEB22D6-0CEA-4B94-B24F-A959AF5FFA3E}">
   <ds:schemaRefs>
@@ -638,14 +821,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E364378D-2737-4E8E-80E0-EA81C9FB49EC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9C62F3E-04BE-41AC-A123-A6CD03960122}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -661,4 +836,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E364378D-2737-4E8E-80E0-EA81C9FB49EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>